--- a/scintillator_results_CathodeReflectivity.xlsx
+++ b/scintillator_results_CathodeReflectivity.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950"/>
   </bookViews>
   <sheets>
     <sheet name="LYSO" sheetId="1" r:id="rId1"/>
     <sheet name="LuYAG" sheetId="2" r:id="rId2"/>
     <sheet name="YAP" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -132,6 +132,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -425,9 +428,12 @@
             <c:strRef>
               <c:f>LYSO!$E$3:$E$4</c:f>
               <c:strCache>
-                <c:ptCount val="1"/>
+                <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>3x10 200</c:v>
+                  <c:v>3x10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -699,11 +705,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="101045888"/>
-        <c:axId val="101046464"/>
+        <c:axId val="432442800"/>
+        <c:axId val="432443192"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="101045888"/>
+        <c:axId val="432442800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -713,12 +719,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="101046464"/>
+        <c:crossAx val="432443192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="101046464"/>
+        <c:axId val="432443192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="43"/>
@@ -731,7 +737,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="101045888"/>
+        <c:crossAx val="432442800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1043,11 +1049,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="59256768"/>
-        <c:axId val="59256192"/>
+        <c:axId val="432356136"/>
+        <c:axId val="432356528"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="59256768"/>
+        <c:axId val="432356136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1057,12 +1063,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="59256192"/>
+        <c:crossAx val="432356528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="59256192"/>
+        <c:axId val="432356528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.45"/>
@@ -1075,7 +1081,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="59256768"/>
+        <c:crossAx val="432356136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1671,11 +1677,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="168349056"/>
-        <c:axId val="168348480"/>
+        <c:axId val="432357704"/>
+        <c:axId val="441597888"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="168349056"/>
+        <c:axId val="432357704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="5"/>
@@ -1687,12 +1693,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="168348480"/>
+        <c:crossAx val="441597888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="168348480"/>
+        <c:axId val="441597888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="21"/>
@@ -1705,7 +1711,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="168349056"/>
+        <c:crossAx val="432357704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2017,11 +2023,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="168351360"/>
-        <c:axId val="168350208"/>
+        <c:axId val="441598672"/>
+        <c:axId val="441599064"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="168351360"/>
+        <c:axId val="441598672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="5"/>
@@ -2033,12 +2039,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="168350208"/>
+        <c:crossAx val="441599064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="168350208"/>
+        <c:axId val="441599064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.1500000000000001"/>
@@ -2051,7 +2057,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="168351360"/>
+        <c:crossAx val="441598672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3133,11 +3139,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="158668416"/>
-        <c:axId val="158666688"/>
+        <c:axId val="432355744"/>
+        <c:axId val="432355352"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="158668416"/>
+        <c:axId val="432355744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3147,12 +3153,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="158666688"/>
+        <c:crossAx val="432355352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="158666688"/>
+        <c:axId val="432355352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="27"/>
@@ -3165,7 +3171,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="158668416"/>
+        <c:crossAx val="432355744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3395,7 +3401,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3430,7 +3436,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3641,8 +3647,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="E46" sqref="E46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4868,7 +4874,7 @@
         <v>0.234652</v>
       </c>
       <c r="C6" s="1">
-        <f t="shared" ref="C5:C43" si="0">($A$2/$C$2)/(B6*$B$2*59.5)</f>
+        <f t="shared" ref="C6:C43" si="0">($A$2/$C$2)/(B6*$B$2*59.5)</f>
         <v>19.718174030432447</v>
       </c>
       <c r="E6">
@@ -4878,7 +4884,7 @@
         <v>0.25829800000000003</v>
       </c>
       <c r="G6" s="1">
-        <f t="shared" ref="G5:G14" si="1">($E$2/$C$2)/(F6*$B$2*59.5)</f>
+        <f t="shared" ref="G6:G14" si="1">($E$2/$C$2)/(F6*$B$2*59.5)</f>
         <v>19.491705307044413</v>
       </c>
       <c r="I6">
@@ -5859,8 +5865,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="S5" sqref="S5:S43"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="I37" sqref="I37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5999,7 +6005,7 @@
         <v>0.393928</v>
       </c>
       <c r="C5" s="1">
-        <f t="shared" ref="C5:C15" si="0">($A$2/$C$2)/(B5*$B$2*59.5)</f>
+        <f t="shared" ref="C5:C14" si="0">($A$2/$C$2)/(B5*$B$2*59.5)</f>
         <v>24.818431210749154</v>
       </c>
       <c r="I5">
@@ -6507,7 +6513,7 @@
         <v>0.48316700000000001</v>
       </c>
       <c r="C17" s="1">
-        <f t="shared" ref="C16:C43" si="9">($A$2/$C$2)/(B17*$B$2*59.5)</f>
+        <f t="shared" ref="C17:C43" si="9">($A$2/$C$2)/(B17*$B$2*59.5)</f>
         <v>20.23456686815944</v>
       </c>
       <c r="E17">
@@ -6517,7 +6523,7 @@
         <v>0.48533399999999999</v>
       </c>
       <c r="G17" s="1">
-        <f t="shared" ref="G16:G43" si="10">($E$2/$C$2)/(F17*$B$2*59.5)</f>
+        <f t="shared" ref="G17:G43" si="10">($E$2/$C$2)/(F17*$B$2*59.5)</f>
         <v>19.500944583679338</v>
       </c>
       <c r="I17">
